--- a/Src/deploy/outputs/results.xlsx
+++ b/Src/deploy/outputs/results.xlsx
@@ -133,7 +133,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1809750" cy="2857500"/>
+    <ext cx="2857500" cy="1009650"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -158,7 +158,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1009650" cy="2857500"/>
+    <ext cx="2857500" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -183,7 +183,7 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="1266825"/>
+    <ext cx="2857500" cy="1771650"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -208,7 +208,7 @@
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="2733675"/>
+    <ext cx="2857500" cy="2314575"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -233,7 +233,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1219200" cy="2857500"/>
+    <ext cx="2857500" cy="2038350"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -258,7 +258,7 @@
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2609850" cy="2857500"/>
+    <ext cx="2857500" cy="1714500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -283,7 +283,7 @@
       <row>7</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2857500" cy="1181100"/>
+    <ext cx="2857500" cy="1571625"/>
     <pic>
       <nvPicPr>
         <cNvPr id="7" name="Image 7" descr="Picture"/>
@@ -291,6 +291,406 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2743200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="1009650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2009775"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="1771650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="1543050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="1381125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="1495425"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2314575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2038350"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="1714500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="1571625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="1914525"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId19"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2343150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2371725" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId21"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="2743200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId22"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2857500" cy="1971675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId23"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -593,7 +993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,33 +1019,99 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>(0.64)</t>
+          <t>la 0.5 ID H B-C |</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>a (0.25 ID |</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>YN [0.6 |D fH [B-C</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(~ {0.5 |D HH [BC</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>a 0.16)</t>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
